--- a/xlsx/编辑松_intext.xlsx
+++ b/xlsx/编辑松_intext.xlsx
@@ -29,7 +29,7 @@
     <t>吉尼斯世界纪录大全</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_编辑松</t>
+    <t>政策_政策_维基百科_编辑松</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BF%9D%E7%BE%85_(%E5%B7%B4%E8%A5%BF)</t>
   </si>
   <si>
-    <t>聖保羅 (巴西)</t>
+    <t>圣保罗 (巴西)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>女性主義</t>
+    <t>女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>婦女權利</t>
+    <t>妇女权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E8%A1%97%E5%9C%96</t>
   </si>
   <si>
-    <t>開放街圖</t>
+    <t>开放街图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LocalWiki</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E6%88%90%E8%A9%9E</t>
   </si>
   <si>
-    <t>混成詞</t>
+    <t>混成词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%88%86%E4%BC%9A%E5%88%97%E8%A1%A8</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%AB%BE%E9%A6%AC%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>索諾馬州立大學</t>
+    <t>索诺马州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞利桑那州立大學</t>
+    <t>亚利桑那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%A4%9A%E5%88%A9%E4%BA%9A%E5%A4%A7%E5%AD%A6_(%E5%8A%A0%E6%8B%BF%E5%A4%A7)</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88</t>
   </si>
   <si>
-    <t>檔案</t>
+    <t>档案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/cultural_institutions</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%80%A7%E5%88%A5%E5%81%8F%E8%AA%A4</t>
   </si>
   <si>
-    <t>維基百科的性別偏誤</t>
+    <t>维基百科的性别偏误</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會正義</t>
+    <t>社会正义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/LGBT_community</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E4%BA%9E%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>索馬亞博物館</t>
+    <t>索马亚博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%AE%A2%E6%9D%BE</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E7%B4%80%E4%BA%8B%E5%A0%B1</t>
   </si>
   <si>
-    <t>高等教育紀事報</t>
+    <t>高等教育纪事报</t>
   </si>
   <si>
     <t>http://wiki.openstreetmap.org/wiki/Mapathon</t>
